--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_24_29.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_24_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2084542.307189634</v>
+        <v>2081997.71449535</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283192</v>
+        <v>416855.1052283198</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9734589.108662384</v>
+        <v>9734589.108662385</v>
       </c>
     </row>
     <row r="11">
@@ -674,10 +674,10 @@
         <v>13.09783323005805</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>96.86671316392828</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,13 +704,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>77.08171901666373</v>
+        <v>77.08171901666375</v>
       </c>
       <c r="S2" t="n">
         <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -719,13 +719,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>96.86671316392838</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -747,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -759,7 +759,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265835</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -789,19 +789,19 @@
         <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="V3" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>42.47944622542298</v>
+        <v>36.39469600159763</v>
       </c>
       <c r="X3" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>52.21594625443453</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>52.21594625443466</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -896,22 +896,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>116.9387179902941</v>
       </c>
       <c r="F5" t="n">
-        <v>228.2198007505746</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>12.25188473404938</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>308.2302560714735</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -941,10 +941,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>23.94240680425949</v>
+        <v>23.94240680425912</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>139.4987618372555</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -956,13 +956,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -981,7 +981,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>43.32085084937526</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,16 +1020,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>44.33060630074816</v>
+        <v>44.33060630074797</v>
       </c>
       <c r="S6" t="n">
-        <v>141.3629830843607</v>
+        <v>141.3629830843606</v>
       </c>
       <c r="T6" t="n">
-        <v>46.40771639427888</v>
+        <v>193.5852120974427</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8339906239991</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1041,7 +1041,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>3.481777442251839</v>
       </c>
     </row>
     <row r="7">
@@ -1054,13 +1054,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>36.85894767156847</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1105,13 +1105,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>222.0983299894507</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>109.8100533469016</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1142,16 +1142,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>11.87073484362677</v>
+        <v>411.8707348436268</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>78.16360657708302</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>130.8133087092505</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>4.023709124811027</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1193,13 +1193,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>200.4727983501274</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1212,22 +1212,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>135.5072338470352</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>94.50081326185511</v>
+        <v>55.31717029709943</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1257,22 +1257,22 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>31.66886087721433</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>41.96391599673902</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -1342,13 +1342,13 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>221.3678187343026</v>
       </c>
       <c r="U10" t="n">
-        <v>220.0133056736544</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>250.7831302631782</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1379,7 +1379,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1525,10 +1525,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1537,10 +1537,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>79.05856366754284</v>
       </c>
       <c r="G13" t="n">
-        <v>52.54490042790761</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1588,13 +1588,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.5229983365925</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1613,7 +1613,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1774,10 +1774,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>71.79687029690864</v>
+        <v>19.91555826189057</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1816,10 +1816,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892455</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="18">
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2011,10 +2011,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>59.45282559759904</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -2056,13 +2056,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>141.3831318263011</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2141,7 +2141,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174139</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2236,16 +2236,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>59.96838802184594</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2257,7 +2257,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2293,7 +2293,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2333,7 +2333,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2476,16 +2476,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>48.47457675531665</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2533,7 +2533,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2558,7 +2558,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.6830416206816</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2713,7 +2713,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2722,16 +2722,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>39.52129633182582</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>132.6315337216688</v>
+        <v>217.4054503272936</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2953,19 +2953,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>23.6255456814127</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>45.66054613217155</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -3190,10 +3190,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>11.56087338713362</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3238,7 +3238,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>14.92158678358339</v>
       </c>
     </row>
     <row r="35">
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3424,7 +3424,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>130.1208074460232</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3433,10 +3433,10 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>9.14614278817813</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3569,7 +3569,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3664,10 +3664,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3676,7 +3676,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3712,10 +3712,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1844743892458</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3727,7 +3727,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>6.600826611593124</v>
       </c>
     </row>
     <row r="41">
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3904,7 +3904,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -3913,10 +3913,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3961,10 +3961,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>152.0575603057045</v>
       </c>
       <c r="Y43" t="n">
-        <v>185.6920487814947</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4147,7 +4147,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4183,7 +4183,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>134.5665975534137</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4195,7 +4195,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>74.53917159609126</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>35.17768229832528</v>
+        <v>322.4426321268589</v>
       </c>
       <c r="C2" t="n">
-        <v>35.17768229832528</v>
+        <v>322.4426321268589</v>
       </c>
       <c r="D2" t="n">
-        <v>35.17768229832528</v>
+        <v>322.4426321268589</v>
       </c>
       <c r="E2" t="n">
-        <v>35.17768229832528</v>
+        <v>322.4426321268589</v>
       </c>
       <c r="F2" t="n">
-        <v>28.23218154912181</v>
+        <v>315.4971313776555</v>
       </c>
       <c r="G2" t="n">
-        <v>15.0020469733056</v>
+        <v>302.2669968018392</v>
       </c>
       <c r="H2" t="n">
-        <v>15.0020469733056</v>
+        <v>112.8472117853544</v>
       </c>
       <c r="I2" t="n">
         <v>15.0020469733056</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678506</v>
+        <v>21.03371160678478</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058967</v>
+        <v>80.81213159058944</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079184</v>
+        <v>191.8743094079185</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644754</v>
+        <v>347.1218190644755</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123828</v>
+        <v>509.495204112383</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985584</v>
+        <v>649.4845259985585</v>
       </c>
       <c r="P2" t="n">
         <v>734.4611726020269</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652801</v>
+        <v>750.10234866528</v>
       </c>
       <c r="R2" t="n">
-        <v>672.2420264262258</v>
+        <v>672.2420264262257</v>
       </c>
       <c r="S2" t="n">
-        <v>511.8624171433439</v>
+        <v>511.8624171433438</v>
       </c>
       <c r="T2" t="n">
-        <v>511.8624171433439</v>
+        <v>322.4426321268589</v>
       </c>
       <c r="U2" t="n">
-        <v>511.8624171433439</v>
+        <v>322.4426321268589</v>
       </c>
       <c r="V2" t="n">
-        <v>511.8624171433439</v>
+        <v>322.4426321268589</v>
       </c>
       <c r="W2" t="n">
-        <v>322.4426321268591</v>
+        <v>322.4426321268589</v>
       </c>
       <c r="X2" t="n">
-        <v>133.0228471103742</v>
+        <v>322.4426321268589</v>
       </c>
       <c r="Y2" t="n">
-        <v>35.17768229832528</v>
+        <v>322.4426321268589</v>
       </c>
     </row>
     <row r="3">
@@ -4383,43 +4383,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>177.0711716460755</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="C3" t="n">
-        <v>177.0711716460755</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="D3" t="n">
-        <v>177.0711716460755</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="E3" t="n">
-        <v>177.0711716460755</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="F3" t="n">
-        <v>30.5366136729605</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G3" t="n">
-        <v>30.5366136729605</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H3" t="n">
-        <v>30.5366136729605</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I3" t="n">
-        <v>30.5366136729605</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J3" t="n">
         <v>15.0020469733056</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024219</v>
+        <v>67.13418877024208</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772651</v>
+        <v>183.554828077265</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140248</v>
+        <v>338.7690911140245</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546606</v>
+        <v>512.5000587546604</v>
       </c>
       <c r="O3" t="n">
         <v>649.2101578476352</v>
@@ -4428,31 +4428,31 @@
         <v>739.5989987017066</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652801</v>
+        <v>750.10234866528</v>
       </c>
       <c r="R3" t="n">
-        <v>750.1023486652801</v>
+        <v>750.10234866528</v>
       </c>
       <c r="S3" t="n">
-        <v>598.8192732198765</v>
+        <v>598.8192732198763</v>
       </c>
       <c r="T3" t="n">
-        <v>598.8192732198765</v>
+        <v>409.3994882033915</v>
       </c>
       <c r="U3" t="n">
-        <v>598.8192732198765</v>
+        <v>219.9797031869066</v>
       </c>
       <c r="V3" t="n">
-        <v>409.3994882033917</v>
+        <v>219.9797031869066</v>
       </c>
       <c r="W3" t="n">
-        <v>366.4909566625604</v>
+        <v>183.2173839933736</v>
       </c>
       <c r="X3" t="n">
-        <v>177.0711716460755</v>
+        <v>183.2173839933736</v>
       </c>
       <c r="Y3" t="n">
-        <v>177.0711716460755</v>
+        <v>183.2173839933736</v>
       </c>
     </row>
     <row r="4">
@@ -4492,37 +4492,37 @@
         <v>15.0020469733056</v>
       </c>
       <c r="L4" t="n">
-        <v>27.03967056230183</v>
+        <v>27.03967056230179</v>
       </c>
       <c r="M4" t="n">
-        <v>42.98993985170729</v>
+        <v>42.98993985170723</v>
       </c>
       <c r="N4" t="n">
-        <v>66.41847329396353</v>
+        <v>66.41847329396343</v>
       </c>
       <c r="O4" t="n">
-        <v>67.74542702829011</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="P4" t="n">
-        <v>67.74542702829011</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="Q4" t="n">
-        <v>67.74542702829011</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="R4" t="n">
-        <v>67.74542702829011</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="S4" t="n">
-        <v>67.74542702829011</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="T4" t="n">
-        <v>67.74542702829011</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="U4" t="n">
-        <v>67.74542702829011</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="V4" t="n">
-        <v>67.74542702829011</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="W4" t="n">
         <v>15.0020469733056</v>
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>646.4212656658804</v>
+        <v>841.6085069816177</v>
       </c>
       <c r="C5" t="n">
-        <v>277.4587487254686</v>
+        <v>841.6085069816177</v>
       </c>
       <c r="D5" t="n">
-        <v>277.4587487254686</v>
+        <v>483.3428083748672</v>
       </c>
       <c r="E5" t="n">
-        <v>277.4587487254686</v>
+        <v>365.2228912129539</v>
       </c>
       <c r="F5" t="n">
-        <v>46.93369746226196</v>
+        <v>358.2773904637505</v>
       </c>
       <c r="G5" t="n">
-        <v>34.55805631675754</v>
+        <v>345.9017493182461</v>
       </c>
       <c r="H5" t="n">
-        <v>34.55805631675754</v>
+        <v>34.55805631675767</v>
       </c>
       <c r="I5" t="n">
-        <v>34.55805631675754</v>
+        <v>34.55805631675767</v>
       </c>
       <c r="J5" t="n">
-        <v>111.670553901721</v>
+        <v>111.6705539017217</v>
       </c>
       <c r="K5" t="n">
-        <v>277.9807166746958</v>
+        <v>277.9807166746977</v>
       </c>
       <c r="L5" t="n">
-        <v>521.2049416030733</v>
+        <v>521.2049416030761</v>
       </c>
       <c r="M5" t="n">
-        <v>823.508193570914</v>
+        <v>823.5081935709177</v>
       </c>
       <c r="N5" t="n">
-        <v>1135.316836582747</v>
+        <v>1135.316836582751</v>
       </c>
       <c r="O5" t="n">
-        <v>1416.413635079234</v>
+        <v>1416.413635079239</v>
       </c>
       <c r="P5" t="n">
-        <v>1621.822248332752</v>
+        <v>1621.822248332758</v>
       </c>
       <c r="Q5" t="n">
-        <v>1727.902815837877</v>
+        <v>1727.902815837884</v>
       </c>
       <c r="R5" t="n">
-        <v>1703.718566540645</v>
+        <v>1703.718566540652</v>
       </c>
       <c r="S5" t="n">
-        <v>1703.718566540645</v>
+        <v>1562.810726301</v>
       </c>
       <c r="T5" t="n">
-        <v>1703.718566540645</v>
+        <v>1562.810726301</v>
       </c>
       <c r="U5" t="n">
-        <v>1703.718566540645</v>
+        <v>1562.810726301</v>
       </c>
       <c r="V5" t="n">
-        <v>1372.655679197074</v>
+        <v>1231.747838957429</v>
       </c>
       <c r="W5" t="n">
-        <v>1019.88702392696</v>
+        <v>1231.747838957429</v>
       </c>
       <c r="X5" t="n">
-        <v>646.4212656658804</v>
+        <v>1231.747838957429</v>
       </c>
       <c r="Y5" t="n">
-        <v>646.4212656658804</v>
+        <v>841.6085069816177</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>78.31649151814669</v>
+        <v>193.7955113222132</v>
       </c>
       <c r="C6" t="n">
-        <v>78.31649151814669</v>
+        <v>193.7955113222132</v>
       </c>
       <c r="D6" t="n">
-        <v>78.31649151814669</v>
+        <v>193.7955113222132</v>
       </c>
       <c r="E6" t="n">
-        <v>78.31649151814669</v>
+        <v>34.55805631675767</v>
       </c>
       <c r="F6" t="n">
-        <v>78.31649151814669</v>
+        <v>34.55805631675767</v>
       </c>
       <c r="G6" t="n">
-        <v>78.31649151814669</v>
+        <v>34.55805631675767</v>
       </c>
       <c r="H6" t="n">
-        <v>78.31649151814669</v>
+        <v>34.55805631675767</v>
       </c>
       <c r="I6" t="n">
-        <v>34.55805631675754</v>
+        <v>34.55805631675767</v>
       </c>
       <c r="J6" t="n">
-        <v>61.66788464787487</v>
+        <v>61.66788464787531</v>
       </c>
       <c r="K6" t="n">
-        <v>186.1577239806053</v>
+        <v>186.1577239806063</v>
       </c>
       <c r="L6" t="n">
-        <v>399.8722171189962</v>
+        <v>399.8722171189978</v>
       </c>
       <c r="M6" t="n">
-        <v>668.6238185223476</v>
+        <v>668.6238185223501</v>
       </c>
       <c r="N6" t="n">
-        <v>958.8971200352446</v>
+        <v>958.897120035248</v>
       </c>
       <c r="O6" t="n">
-        <v>1202.220686228315</v>
+        <v>1202.220686228319</v>
       </c>
       <c r="P6" t="n">
-        <v>1378.176233639504</v>
+        <v>1378.176233639508</v>
       </c>
       <c r="Q6" t="n">
-        <v>1445.878660906544</v>
+        <v>1445.878660906549</v>
       </c>
       <c r="R6" t="n">
-        <v>1401.100270703768</v>
+        <v>1401.100270703774</v>
       </c>
       <c r="S6" t="n">
-        <v>1258.309378699364</v>
+        <v>1258.309378699369</v>
       </c>
       <c r="T6" t="n">
-        <v>1211.432897493021</v>
+        <v>1062.768760419124</v>
       </c>
       <c r="U6" t="n">
-        <v>983.3177554485778</v>
+        <v>1062.768760419124</v>
       </c>
       <c r="V6" t="n">
-        <v>748.1656472168351</v>
+        <v>827.6166521873811</v>
       </c>
       <c r="W6" t="n">
-        <v>493.9282904886334</v>
+        <v>573.3792954591795</v>
       </c>
       <c r="X6" t="n">
-        <v>286.0767902831006</v>
+        <v>365.5277952536467</v>
       </c>
       <c r="Y6" t="n">
-        <v>78.31649151814669</v>
+        <v>362.0108483422812</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>369.819049585798</v>
+        <v>34.55805631675767</v>
       </c>
       <c r="C7" t="n">
-        <v>332.5877893114864</v>
+        <v>34.55805631675767</v>
       </c>
       <c r="D7" t="n">
-        <v>182.4711498991506</v>
+        <v>34.55805631675767</v>
       </c>
       <c r="E7" t="n">
-        <v>34.55805631675754</v>
+        <v>34.55805631675767</v>
       </c>
       <c r="F7" t="n">
-        <v>34.55805631675754</v>
+        <v>34.55805631675767</v>
       </c>
       <c r="G7" t="n">
-        <v>34.55805631675754</v>
+        <v>34.55805631675767</v>
       </c>
       <c r="H7" t="n">
-        <v>34.55805631675754</v>
+        <v>34.55805631675767</v>
       </c>
       <c r="I7" t="n">
-        <v>34.55805631675754</v>
+        <v>34.55805631675767</v>
       </c>
       <c r="J7" t="n">
-        <v>34.55805631675754</v>
+        <v>34.55805631675767</v>
       </c>
       <c r="K7" t="n">
-        <v>64.24066662574644</v>
+        <v>64.24066662574688</v>
       </c>
       <c r="L7" t="n">
-        <v>132.1299861584107</v>
+        <v>132.1299861584115</v>
       </c>
       <c r="M7" t="n">
-        <v>206.9680378347959</v>
+        <v>206.9680378347971</v>
       </c>
       <c r="N7" t="n">
-        <v>287.884133819535</v>
+        <v>287.8841338195366</v>
       </c>
       <c r="O7" t="n">
-        <v>342.3101561934696</v>
+        <v>342.3101561934716</v>
       </c>
       <c r="P7" t="n">
-        <v>369.819049585798</v>
+        <v>369.8190495858004</v>
       </c>
       <c r="Q7" t="n">
-        <v>369.819049585798</v>
+        <v>369.8190495858004</v>
       </c>
       <c r="R7" t="n">
-        <v>369.819049585798</v>
+        <v>369.8190495858004</v>
       </c>
       <c r="S7" t="n">
-        <v>369.819049585798</v>
+        <v>369.8190495858004</v>
       </c>
       <c r="T7" t="n">
-        <v>369.819049585798</v>
+        <v>145.4773021217088</v>
       </c>
       <c r="U7" t="n">
-        <v>369.819049585798</v>
+        <v>145.4773021217088</v>
       </c>
       <c r="V7" t="n">
-        <v>369.819049585798</v>
+        <v>34.55805631675767</v>
       </c>
       <c r="W7" t="n">
-        <v>369.819049585798</v>
+        <v>34.55805631675767</v>
       </c>
       <c r="X7" t="n">
-        <v>369.819049585798</v>
+        <v>34.55805631675767</v>
       </c>
       <c r="Y7" t="n">
-        <v>369.819049585798</v>
+        <v>34.55805631675767</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1579.362210729296</v>
+        <v>1289.352831745533</v>
       </c>
       <c r="C8" t="n">
-        <v>1210.399693788884</v>
+        <v>1289.352831745533</v>
       </c>
       <c r="D8" t="n">
-        <v>852.1339951821336</v>
+        <v>931.087133138783</v>
       </c>
       <c r="E8" t="n">
-        <v>466.3457425838894</v>
+        <v>545.2988805405388</v>
       </c>
       <c r="F8" t="n">
-        <v>55.35983779428181</v>
+        <v>538.3533797913353</v>
       </c>
       <c r="G8" t="n">
-        <v>43.36919653809315</v>
+        <v>122.3223344947426</v>
       </c>
       <c r="H8" t="n">
-        <v>43.36919653809315</v>
+        <v>122.3223344947426</v>
       </c>
       <c r="I8" t="n">
-        <v>43.36919653809315</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J8" t="n">
-        <v>152.5078184301906</v>
+        <v>152.5078184301901</v>
       </c>
       <c r="K8" t="n">
-        <v>366.8168396232728</v>
+        <v>366.8168396232722</v>
       </c>
       <c r="L8" t="n">
-        <v>669.5878927711885</v>
+        <v>669.5878927711872</v>
       </c>
       <c r="M8" t="n">
-        <v>1038.148464578732</v>
+        <v>1038.14846457873</v>
       </c>
       <c r="N8" t="n">
-        <v>1417.28654013517</v>
+        <v>1417.286540135167</v>
       </c>
       <c r="O8" t="n">
-        <v>1761.9606125456</v>
+        <v>1761.960612545596</v>
       </c>
       <c r="P8" t="n">
-        <v>2021.630958172451</v>
+        <v>2021.630958172447</v>
       </c>
       <c r="Q8" t="n">
-        <v>2168.459826904657</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="R8" t="n">
-        <v>2168.459826904657</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="S8" t="n">
-        <v>2168.459826904657</v>
+        <v>2036.325171642784</v>
       </c>
       <c r="T8" t="n">
-        <v>2168.459826904657</v>
+        <v>2032.260818991459</v>
       </c>
       <c r="U8" t="n">
-        <v>2168.459826904657</v>
+        <v>2032.260818991459</v>
       </c>
       <c r="V8" t="n">
-        <v>2168.459826904657</v>
+        <v>2032.260818991459</v>
       </c>
       <c r="W8" t="n">
-        <v>2168.459826904657</v>
+        <v>1679.492163721345</v>
       </c>
       <c r="X8" t="n">
-        <v>2168.459826904657</v>
+        <v>1679.492163721345</v>
       </c>
       <c r="Y8" t="n">
-        <v>1965.962050793418</v>
+        <v>1289.352831745533</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>904.8600091750928</v>
+        <v>99.24512613112279</v>
       </c>
       <c r="C9" t="n">
-        <v>730.4069798939659</v>
+        <v>99.24512613112279</v>
       </c>
       <c r="D9" t="n">
-        <v>581.4725702327146</v>
+        <v>99.24512613112279</v>
       </c>
       <c r="E9" t="n">
-        <v>422.235115227259</v>
+        <v>99.24512613112279</v>
       </c>
       <c r="F9" t="n">
-        <v>275.700557254144</v>
+        <v>99.24512613112279</v>
       </c>
       <c r="G9" t="n">
-        <v>138.8245634692599</v>
+        <v>99.24512613112279</v>
       </c>
       <c r="H9" t="n">
-        <v>43.36919653809315</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I9" t="n">
-        <v>43.36919653809315</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J9" t="n">
-        <v>89.55356510562345</v>
+        <v>89.55356510562314</v>
       </c>
       <c r="K9" t="n">
-        <v>246.6448318504525</v>
+        <v>246.6448318504519</v>
       </c>
       <c r="L9" t="n">
-        <v>504.1959674104405</v>
+        <v>504.1959674104394</v>
       </c>
       <c r="M9" t="n">
-        <v>824.1028628789504</v>
+        <v>824.1028628789486</v>
       </c>
       <c r="N9" t="n">
-        <v>1166.885386873582</v>
+        <v>1166.88538687358</v>
       </c>
       <c r="O9" t="n">
-        <v>1458.244633128149</v>
+        <v>1458.244633128146</v>
       </c>
       <c r="P9" t="n">
-        <v>1672.75304868905</v>
+        <v>1672.753048689046</v>
       </c>
       <c r="Q9" t="n">
-        <v>1766.22704733349</v>
+        <v>1766.227047333486</v>
       </c>
       <c r="R9" t="n">
-        <v>1766.22704733349</v>
+        <v>1734.238298972664</v>
       </c>
       <c r="S9" t="n">
-        <v>1766.22704733349</v>
+        <v>1595.273638474382</v>
       </c>
       <c r="T9" t="n">
-        <v>1766.22704733349</v>
+        <v>1400.563316948358</v>
       </c>
       <c r="U9" t="n">
-        <v>1766.22704733349</v>
+        <v>1172.461727081622</v>
       </c>
       <c r="V9" t="n">
-        <v>1531.074939101748</v>
+        <v>937.3096188498791</v>
       </c>
       <c r="W9" t="n">
-        <v>1488.687145165648</v>
+        <v>683.0722621216776</v>
       </c>
       <c r="X9" t="n">
-        <v>1280.835644960115</v>
+        <v>475.2207619161447</v>
       </c>
       <c r="Y9" t="n">
-        <v>1073.075346195161</v>
+        <v>267.4604631511908</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>43.36919653809315</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="C10" t="n">
-        <v>43.36919653809315</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="D10" t="n">
-        <v>43.36919653809315</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="E10" t="n">
-        <v>43.36919653809315</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="F10" t="n">
-        <v>43.36919653809315</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="G10" t="n">
-        <v>43.36919653809315</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H10" t="n">
-        <v>43.36919653809315</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I10" t="n">
-        <v>43.36919653809315</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J10" t="n">
-        <v>43.36919653809315</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="K10" t="n">
-        <v>92.71685897981551</v>
+        <v>92.71685897981519</v>
       </c>
       <c r="L10" t="n">
-        <v>185.7706748018947</v>
+        <v>185.7706748018941</v>
       </c>
       <c r="M10" t="n">
-        <v>287.141159492734</v>
+        <v>287.1411594927331</v>
       </c>
       <c r="N10" t="n">
-        <v>393.9588065377471</v>
+        <v>393.9588065377459</v>
       </c>
       <c r="O10" t="n">
-        <v>472.3091036033672</v>
+        <v>472.3091036033657</v>
       </c>
       <c r="P10" t="n">
-        <v>520.2893470406007</v>
+        <v>520.289347040599</v>
       </c>
       <c r="Q10" t="n">
-        <v>520.2893470406007</v>
+        <v>520.289347040599</v>
       </c>
       <c r="R10" t="n">
-        <v>520.2893470406007</v>
+        <v>520.289347040599</v>
       </c>
       <c r="S10" t="n">
-        <v>520.2893470406007</v>
+        <v>520.289347040599</v>
       </c>
       <c r="T10" t="n">
-        <v>520.2893470406007</v>
+        <v>296.6854897332225</v>
       </c>
       <c r="U10" t="n">
-        <v>298.0536847439801</v>
+        <v>296.6854897332225</v>
       </c>
       <c r="V10" t="n">
-        <v>43.36919653809315</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="W10" t="n">
-        <v>43.36919653809315</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="X10" t="n">
-        <v>43.36919653809315</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="Y10" t="n">
-        <v>43.36919653809315</v>
+        <v>43.36919653809306</v>
       </c>
     </row>
     <row r="11">
@@ -5021,10 +5021,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
         <v>793.7736536168611</v>
@@ -5124,22 +5124,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637306</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M12" t="n">
-        <v>1186.520756890282</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N12" t="n">
-        <v>1814.118720444889</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>984.5467179762928</v>
+        <v>695.5020655703091</v>
       </c>
       <c r="C13" t="n">
-        <v>815.6105350483859</v>
+        <v>695.5020655703091</v>
       </c>
       <c r="D13" t="n">
-        <v>665.4938956360502</v>
+        <v>545.3854261579734</v>
       </c>
       <c r="E13" t="n">
-        <v>517.5808020536571</v>
+        <v>397.4723325755803</v>
       </c>
       <c r="F13" t="n">
-        <v>370.6908545557467</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G13" t="n">
         <v>317.6151975578602</v>
@@ -5218,31 +5218,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487565</v>
       </c>
       <c r="T13" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510506</v>
       </c>
       <c r="U13" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854704</v>
       </c>
       <c r="V13" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648817</v>
       </c>
       <c r="W13" t="n">
-        <v>1394.18473370455</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X13" t="n">
-        <v>1166.195182806533</v>
+        <v>916.2946447138393</v>
       </c>
       <c r="Y13" t="n">
-        <v>1166.195182806533</v>
+        <v>695.5020655703091</v>
       </c>
     </row>
     <row r="14">
@@ -5258,7 +5258,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
         <v>1204.759558406469</v>
@@ -5276,19 +5276,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637306</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M15" t="n">
-        <v>1186.520756890282</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N15" t="n">
-        <v>1814.118720444889</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>800.5007694647263</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C16" t="n">
-        <v>631.5645865368194</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D16" t="n">
-        <v>481.4479471244837</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E16" t="n">
-        <v>333.5348535420906</v>
+        <v>113.9333885650331</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
         <v>93.81666304797187</v>
@@ -5464,22 +5464,22 @@
         <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>2264.108249235165</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1975.033022579361</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1720.348534373474</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1430.931364336514</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>1202.941813438496</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y16" t="n">
-        <v>982.149234294966</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="17">
@@ -5510,22 +5510,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5595,19 +5595,19 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>409.1360811687896</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>904.4616873845483</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1016.58045691144</v>
+        <v>762.5477693179035</v>
       </c>
       <c r="C19" t="n">
-        <v>847.6442739835331</v>
+        <v>593.6115863899967</v>
       </c>
       <c r="D19" t="n">
-        <v>697.5276345711974</v>
+        <v>443.4949469776609</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888043</v>
+        <v>295.5818533952678</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
         <v>235.5284942057738</v>
@@ -5677,46 +5677,46 @@
         <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797694</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910804</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570812</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279797</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853356</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580255</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580255</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235164</v>
+        <v>2264.10824923516</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258105</v>
+        <v>2044.506784258101</v>
       </c>
       <c r="U19" t="n">
-        <v>1901.695539989114</v>
+        <v>1755.431557602299</v>
       </c>
       <c r="V19" t="n">
-        <v>1647.011051783227</v>
+        <v>1500.747069396412</v>
       </c>
       <c r="W19" t="n">
-        <v>1647.011051783227</v>
+        <v>1211.329899359451</v>
       </c>
       <c r="X19" t="n">
-        <v>1419.02150088521</v>
+        <v>983.3403484614337</v>
       </c>
       <c r="Y19" t="n">
-        <v>1198.22892174168</v>
+        <v>762.5477693179035</v>
       </c>
     </row>
     <row r="20">
@@ -5744,16 +5744,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5762,37 +5762,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
         <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191926</v>
       </c>
       <c r="L21" t="n">
-        <v>119.290296770379</v>
+        <v>923.0670414349515</v>
       </c>
       <c r="M21" t="n">
-        <v>716.6687843969308</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>695.5020655703119</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>695.5020655703119</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>545.3854261579761</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="23">
@@ -5969,16 +5969,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
@@ -5987,19 +5987,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>139.234765840794</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,16 +6121,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>451.6888124356582</v>
       </c>
       <c r="F25" t="n">
         <v>402.7245934908939</v>
@@ -6181,16 +6181,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="26">
@@ -6200,43 +6200,43 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6245,31 +6245,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1186.520756890282</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N27" t="n">
-        <v>1814.118720444889</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O27" t="n">
-        <v>2366.028450684176</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>849.3843576263199</v>
+        <v>513.8536007400658</v>
       </c>
       <c r="C28" t="n">
-        <v>680.448174698413</v>
+        <v>513.8536007400658</v>
       </c>
       <c r="D28" t="n">
-        <v>530.3315352860773</v>
+        <v>363.73696132773</v>
       </c>
       <c r="E28" t="n">
-        <v>382.4184417036842</v>
+        <v>215.8238677453369</v>
       </c>
       <c r="F28" t="n">
-        <v>235.5284942057738</v>
+        <v>215.8238677453369</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2312.991837396757</v>
+        <v>1977.461080510503</v>
       </c>
       <c r="U28" t="n">
-        <v>2023.916610740955</v>
+        <v>1688.385853854701</v>
       </c>
       <c r="V28" t="n">
-        <v>1769.232122535068</v>
+        <v>1433.701365648814</v>
       </c>
       <c r="W28" t="n">
-        <v>1479.814952498107</v>
+        <v>1144.284195611853</v>
       </c>
       <c r="X28" t="n">
-        <v>1251.82540160009</v>
+        <v>916.2946447138356</v>
       </c>
       <c r="Y28" t="n">
-        <v>1031.03282245656</v>
+        <v>695.5020655703055</v>
       </c>
     </row>
     <row r="29">
@@ -6443,13 +6443,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6470,13 +6470,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400662</v>
       </c>
       <c r="C31" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400662</v>
       </c>
       <c r="D31" t="n">
-        <v>489.9894131830887</v>
+        <v>363.7369613277305</v>
       </c>
       <c r="E31" t="n">
-        <v>489.9894131830887</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F31" t="n">
-        <v>343.0994656851783</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
         <v>175.9033664000583</v>
@@ -6628,43 +6628,43 @@
         <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910804</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570812</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279797</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853356</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580255</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832658</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487562</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510503</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854701</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648814</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611853</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138361</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703059</v>
       </c>
     </row>
     <row r="32">
@@ -6692,28 +6692,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6725,10 +6725,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
         <v>4151.812499466573</v>
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>352.5519571452614</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M33" t="n">
-        <v>949.9304447718133</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N33" t="n">
-        <v>1577.52840832642</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>733.4550657171301</v>
+        <v>719.5738700011939</v>
       </c>
       <c r="C34" t="n">
-        <v>564.5188827892232</v>
+        <v>550.637687073287</v>
       </c>
       <c r="D34" t="n">
-        <v>414.4022433768874</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6886,22 +6886,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>915.1035305473698</v>
+        <v>901.2223348314336</v>
       </c>
     </row>
     <row r="35">
@@ -6917,31 +6917,31 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
         <v>2206.558663014779</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M36" t="n">
-        <v>1344.266747951538</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951538</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G37" t="n">
         <v>235.5284942057738</v>
@@ -7105,40 +7105,40 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570816</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7154,13 +7154,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,22 +7169,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7251,28 +7251,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>119.290296770379</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O39" t="n">
-        <v>2516.421633107662</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7360,22 +7360,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854704</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648817</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138393</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E41" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168618</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7406,13 +7406,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="42">
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1016.58045691144</v>
+        <v>809.0422355233313</v>
       </c>
       <c r="C43" t="n">
-        <v>847.6442739835331</v>
+        <v>640.1060525954244</v>
       </c>
       <c r="D43" t="n">
-        <v>697.5276345711974</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E43" t="n">
-        <v>549.6145409888043</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7591,28 +7591,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1903.203368718571</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1385.796647783593</v>
+        <v>990.6907003535711</v>
       </c>
       <c r="Y43" t="n">
-        <v>1198.22892174168</v>
+        <v>990.6907003535711</v>
       </c>
     </row>
     <row r="44">
@@ -7622,43 +7622,43 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>352.5519571452614</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M45" t="n">
-        <v>949.9304447718133</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N45" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>560.7825789706076</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C46" t="n">
-        <v>391.8463960427007</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D46" t="n">
-        <v>241.729756630365</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E46" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F46" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
         <v>93.81666304797187</v>
@@ -7831,25 +7831,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2243.991523718104</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2024.390058741045</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1735.314832085242</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1480.630343879355</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1191.213173842395</v>
+        <v>1358.409273127515</v>
       </c>
       <c r="X46" t="n">
-        <v>963.2236229443774</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y46" t="n">
-        <v>742.4310438008473</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
   </sheetData>
@@ -23413,10 +23413,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23425,10 +23425,10 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>66.3624843553884</v>
       </c>
       <c r="G13" t="n">
-        <v>112.9792378643612</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23662,10 +23662,10 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>73.62417772602261</v>
+        <v>125.5054897610407</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
@@ -23704,7 +23704,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23899,10 +23899,10 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>85.9682224253322</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23944,13 +23944,13 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>144.8013425629431</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24124,16 +24124,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>86.46557462472323</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24145,7 +24145,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24181,7 +24181,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24364,16 +24364,16 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>96.94647126761458</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24421,7 +24421,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24601,7 +24601,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24610,16 +24610,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>126.002841960443</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012621</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>84.77391660561949</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24841,19 +24841,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>124.9899273367997</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>100.7734165143976</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -25078,10 +25078,10 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>134.8730892594355</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25126,7 +25126,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>203.6630665685114</v>
       </c>
     </row>
     <row r="35">
@@ -25312,7 +25312,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>37.12601365260466</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25321,10 +25321,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>57.22910392194355</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25552,10 +25552,10 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25564,7 +25564,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25600,7 +25600,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25615,7 +25615,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>211.9838267405017</v>
       </c>
     </row>
     <row r="41">
@@ -25792,7 +25792,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25801,10 +25801,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,13 +25831,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25849,10 +25849,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>73.65209508333268</v>
       </c>
       <c r="Y43" t="n">
-        <v>32.8926045706001</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26035,7 +26035,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -26071,7 +26071,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>46.45968844823085</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26083,7 +26083,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>211.9838267404998</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>841963.919842552</v>
+        <v>841963.9198425519</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>841963.9198425519</v>
+        <v>841963.9198425522</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>841963.9198425519</v>
+        <v>841963.919842552</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>841963.9198425519</v>
+        <v>841963.9198425518</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>841963.919842552</v>
+        <v>841963.9198425519</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>841963.919842552</v>
+        <v>841963.9198425519</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>841963.9198425522</v>
+        <v>841963.9198425519</v>
       </c>
     </row>
     <row r="16">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>595255.2831516056</v>
+        <v>595255.2831516053</v>
       </c>
       <c r="C2" t="n">
-        <v>595255.2831516054</v>
+        <v>595255.2831516053</v>
       </c>
       <c r="D2" t="n">
-        <v>595255.2831516054</v>
+        <v>595255.2831516052</v>
       </c>
       <c r="E2" t="n">
+        <v>585181.2847752543</v>
+      </c>
+      <c r="F2" t="n">
+        <v>585181.2847752544</v>
+      </c>
+      <c r="G2" t="n">
+        <v>585181.2847752539</v>
+      </c>
+      <c r="H2" t="n">
         <v>585181.2847752542</v>
-      </c>
-      <c r="F2" t="n">
-        <v>585181.2847752545</v>
-      </c>
-      <c r="G2" t="n">
-        <v>585181.2847752542</v>
-      </c>
-      <c r="H2" t="n">
-        <v>585181.2847752545</v>
       </c>
       <c r="I2" t="n">
         <v>585181.2847752544</v>
       </c>
       <c r="J2" t="n">
-        <v>585181.2847752545</v>
+        <v>585181.2847752544</v>
       </c>
       <c r="K2" t="n">
-        <v>585181.2847752544</v>
+        <v>585181.2847752542</v>
       </c>
       <c r="L2" t="n">
-        <v>585181.2847752544</v>
+        <v>585181.2847752543</v>
       </c>
       <c r="M2" t="n">
         <v>585181.2847752544</v>
       </c>
       <c r="N2" t="n">
-        <v>585181.2847752545</v>
+        <v>585181.2847752547</v>
       </c>
       <c r="O2" t="n">
         <v>585181.2847752544</v>
       </c>
       <c r="P2" t="n">
-        <v>585181.2847752543</v>
+        <v>585181.2847752545</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208456</v>
+        <v>591356.9025208454</v>
       </c>
       <c r="C3" t="n">
-        <v>270592.3620253101</v>
+        <v>270592.3620253121</v>
       </c>
       <c r="D3" t="n">
-        <v>115410.0540231961</v>
+        <v>115410.054023193</v>
       </c>
       <c r="E3" t="n">
-        <v>601443.207574264</v>
+        <v>601443.2075742653</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,22 +26381,22 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>3.482032298052218e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854453</v>
+        <v>49064.94472854465</v>
       </c>
       <c r="K3" t="n">
-        <v>62913.63765881928</v>
+        <v>62913.63765881965</v>
       </c>
       <c r="L3" t="n">
-        <v>27875.25362197563</v>
+        <v>27875.25362197487</v>
       </c>
       <c r="M3" t="n">
-        <v>157146.3805515977</v>
+        <v>157146.3805515981</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,43 +26418,43 @@
         <v>278536.5648341298</v>
       </c>
       <c r="C4" t="n">
-        <v>206604.4229263468</v>
+        <v>206604.4229263463</v>
       </c>
       <c r="D4" t="n">
-        <v>174202.9900888974</v>
+        <v>174202.9900888977</v>
       </c>
       <c r="E4" t="n">
-        <v>15436.64000687967</v>
+        <v>15436.64000687966</v>
       </c>
       <c r="F4" t="n">
         <v>15436.64000687967</v>
       </c>
       <c r="G4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687962</v>
       </c>
       <c r="H4" t="n">
-        <v>15436.64000687965</v>
+        <v>15436.64000687963</v>
       </c>
       <c r="I4" t="n">
-        <v>15436.64000687967</v>
+        <v>15436.64000687969</v>
       </c>
       <c r="J4" t="n">
-        <v>15436.64000687967</v>
+        <v>15436.64000687962</v>
       </c>
       <c r="K4" t="n">
-        <v>15436.64000687967</v>
+        <v>15436.64000687962</v>
       </c>
       <c r="L4" t="n">
         <v>15436.64000687966</v>
       </c>
       <c r="M4" t="n">
+        <v>15436.64000687967</v>
+      </c>
+      <c r="N4" t="n">
         <v>15436.64000687966</v>
       </c>
-      <c r="N4" t="n">
-        <v>15436.64000687969</v>
-      </c>
       <c r="O4" t="n">
-        <v>15436.64000687968</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="P4" t="n">
         <v>15436.64000687966</v>
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161359</v>
+        <v>56985.80041161358</v>
       </c>
       <c r="C5" t="n">
-        <v>76435.73471936803</v>
+        <v>76435.73471936816</v>
       </c>
       <c r="D5" t="n">
-        <v>85199.08185587233</v>
+        <v>85199.08185587224</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-331623.9846149834</v>
+        <v>-331623.9846149836</v>
       </c>
       <c r="C6" t="n">
-        <v>41622.76348058048</v>
+        <v>41622.76348057875</v>
       </c>
       <c r="D6" t="n">
-        <v>220443.1571836396</v>
+        <v>220443.1571836422</v>
       </c>
       <c r="E6" t="n">
-        <v>-132821.0926297966</v>
+        <v>-132855.8305552335</v>
       </c>
       <c r="F6" t="n">
-        <v>468622.1149444677</v>
+        <v>468587.3770190319</v>
       </c>
       <c r="G6" t="n">
-        <v>468622.1149444674</v>
+        <v>468587.3770190314</v>
       </c>
       <c r="H6" t="n">
-        <v>468622.1149444677</v>
+        <v>468587.3770190314</v>
       </c>
       <c r="I6" t="n">
-        <v>468622.1149444676</v>
+        <v>468587.3770190323</v>
       </c>
       <c r="J6" t="n">
-        <v>419557.1702159232</v>
+        <v>419522.4322904873</v>
       </c>
       <c r="K6" t="n">
-        <v>405708.4772856483</v>
+        <v>405673.7393602121</v>
       </c>
       <c r="L6" t="n">
-        <v>440746.861322492</v>
+        <v>440712.123397057</v>
       </c>
       <c r="M6" t="n">
-        <v>311475.7343928699</v>
+        <v>311440.9964674339</v>
       </c>
       <c r="N6" t="n">
-        <v>468622.1149444677</v>
+        <v>468587.3770190321</v>
       </c>
       <c r="O6" t="n">
-        <v>468622.1149444676</v>
+        <v>468587.3770190319</v>
       </c>
       <c r="P6" t="n">
-        <v>468622.1149444675</v>
+        <v>468587.377019032</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129048</v>
+        <v>548.4699409129047</v>
       </c>
       <c r="C3" t="n">
-        <v>758.89962929506</v>
+        <v>758.8996292950615</v>
       </c>
       <c r="D3" t="n">
-        <v>853.7106645376851</v>
+        <v>853.710664537684</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26790,10 +26790,10 @@
         <v>187.52558716632</v>
       </c>
       <c r="C4" t="n">
-        <v>431.9757039594692</v>
+        <v>431.9757039594709</v>
       </c>
       <c r="D4" t="n">
-        <v>542.1149567261643</v>
+        <v>542.1149567261632</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26805,7 +26805,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129048</v>
+        <v>548.4699409129047</v>
       </c>
       <c r="C3" t="n">
-        <v>210.4296883821552</v>
+        <v>210.4296883821568</v>
       </c>
       <c r="D3" t="n">
-        <v>94.81103524262517</v>
+        <v>94.81103524262255</v>
       </c>
       <c r="E3" t="n">
-        <v>514.2648358039886</v>
+        <v>514.2648358039897</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,7 +26975,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27012,13 +27012,13 @@
         <v>187.52558716632</v>
       </c>
       <c r="C4" t="n">
-        <v>244.4501167931492</v>
+        <v>244.4501167931509</v>
       </c>
       <c r="D4" t="n">
-        <v>110.1392527666951</v>
+        <v>110.1392527666923</v>
       </c>
       <c r="E4" t="n">
-        <v>630.593331373484</v>
+        <v>630.5933313734852</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663196</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="K4" t="n">
-        <v>244.4501167931494</v>
+        <v>244.4501167931509</v>
       </c>
       <c r="L4" t="n">
-        <v>110.1392527666951</v>
+        <v>110.1392527666921</v>
       </c>
       <c r="M4" t="n">
-        <v>630.593331373484</v>
+        <v>630.5933313734854</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27258,13 +27258,13 @@
         <v>187.52558716632</v>
       </c>
       <c r="K4" t="n">
-        <v>244.4501167931492</v>
+        <v>244.4501167931509</v>
       </c>
       <c r="L4" t="n">
-        <v>110.1392527666951</v>
+        <v>110.1392527666923</v>
       </c>
       <c r="M4" t="n">
-        <v>630.593331373484</v>
+        <v>630.5933313734852</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27394,10 +27394,10 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>316.8938261062223</v>
+        <v>129.3682389399023</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199747</v>
+        <v>28.60460395604642</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,7 +27430,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>213.4438810562068</v>
+        <v>25.91829388988677</v>
       </c>
       <c r="U2" t="n">
         <v>251.1692605650303</v>
@@ -27439,13 +27439,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>161.715381551093</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>182.205513512149</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>289.3712254921252</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -27467,7 +27467,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>136.1637893657753</v>
@@ -27476,10 +27476,10 @@
         <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>58.90455890409147</v>
+        <v>58.90455890409149</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>15.37922103265838</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27503,25 +27503,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>72.43289562846316</v>
+        <v>72.43289562846319</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>195.4095977920012</v>
+        <v>7.884010625681213</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8637684100909</v>
+        <v>38.33818124377092</v>
       </c>
       <c r="V3" t="n">
-        <v>45.27499998310523</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>209.2155369354966</v>
+        <v>215.300287159322</v>
       </c>
       <c r="X3" t="n">
-        <v>18.24739803715744</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27558,10 +27558,10 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>57.06999962825414</v>
+        <v>57.06999962825415</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402848</v>
+        <v>14.1043098940285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27576,13 +27576,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709382</v>
+        <v>18.10760906709383</v>
       </c>
       <c r="Q4" t="n">
-        <v>68.68604055159722</v>
+        <v>68.68604055159723</v>
       </c>
       <c r="R4" t="n">
-        <v>132.8223696106904</v>
+        <v>80.60642335625585</v>
       </c>
       <c r="S4" t="n">
         <v>206.7802557954962</v>
@@ -27597,7 +27597,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>234.3070520821564</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27616,25 +27616,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>264.9916520819677</v>
       </c>
       <c r="F5" t="n">
-        <v>178.6562449911368</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>308.2302560714735</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>92.85788772760066</v>
+        <v>92.85788772760043</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,10 +27664,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>139.4987618372556</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>209.7407415149289</v>
+        <v>209.7407415149288</v>
       </c>
       <c r="U5" t="n">
         <v>251.1015846853496</v>
@@ -27676,13 +27676,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27692,7 +27692,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -27701,7 +27701,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -27710,10 +27710,10 @@
         <v>135.7111670171797</v>
       </c>
       <c r="H6" t="n">
-        <v>96.47037835246135</v>
+        <v>96.47037835246131</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>43.32085084937516</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27746,10 +27746,10 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>147.1774957031639</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8339906239991</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -27761,7 +27761,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>202.2009183350525</v>
       </c>
     </row>
     <row r="7">
@@ -27774,13 +27774,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>130.3878734270594</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27792,10 +27792,10 @@
         <v>150.0598964836597</v>
       </c>
       <c r="I7" t="n">
-        <v>114.2957212599131</v>
+        <v>114.295721259913</v>
       </c>
       <c r="J7" t="n">
-        <v>30.24193919304069</v>
+        <v>30.24193919304051</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,22 +27816,22 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>36.91115760589179</v>
+        <v>36.91115760589156</v>
       </c>
       <c r="R7" t="n">
-        <v>115.7603165166225</v>
+        <v>115.7603165166224</v>
       </c>
       <c r="S7" t="n">
         <v>200.1672441130603</v>
       </c>
       <c r="T7" t="n">
-        <v>222.0983299894507</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2443834913144</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>142.3275899769264</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27862,16 +27862,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>304.326804756183</v>
       </c>
       <c r="I8" t="n">
-        <v>78.16360657708285</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>130.8133087092504</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>208.0722578696038</v>
+        <v>204.0485487447928</v>
       </c>
       <c r="U8" t="n">
         <v>251.0710926941158</v>
@@ -27913,13 +27913,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>185.7651403059262</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -27932,25 +27932,25 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>135.5072338470353</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>39.18364296475571</v>
       </c>
       <c r="I9" t="n">
-        <v>36.29946757904878</v>
+        <v>36.29946757904886</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,22 +27977,22 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>31.66886087721419</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>137.5750138932992</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>192.7632183107638</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8205739680685</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>209.7310671641806</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -28032,7 +28032,7 @@
         <v>109.1541654470835</v>
       </c>
       <c r="J10" t="n">
-        <v>18.15430933923912</v>
+        <v>18.15430933923926</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,22 +28053,22 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>22.59469128425539</v>
+        <v>22.59469128425556</v>
       </c>
       <c r="R10" t="n">
-        <v>108.0728512656385</v>
+        <v>108.0728512656386</v>
       </c>
       <c r="S10" t="n">
-        <v>197.1876907596158</v>
+        <v>197.1876907596159</v>
       </c>
       <c r="T10" t="n">
-        <v>221.3678187343026</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>66.22175214206231</v>
+        <v>286.2350578157167</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>1.35451306064985</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28090,7 +28090,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -28099,7 +28099,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -28290,7 +28290,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>-1.696776052995119e-12</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -28308,7 +28308,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>-1.809644481579793e-13</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -28333,7 +28333,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -28539,7 +28539,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>-1.319714707885093e-12</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -28561,7 +28561,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28630,7 +28630,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="18">
@@ -28749,13 +28749,13 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>-5.149439025889029e-12</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>-9.426533627750662e-13</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -28852,7 +28852,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -28861,7 +28861,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>-8.722622624190989e-13</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -29053,7 +29053,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29278,7 +29278,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29478,13 +29478,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>-3.197455209038191e-12</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>-5.337969698444042e-12</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29700,7 +29700,7 @@
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>-5.337969698444042e-12</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30177,7 +30177,7 @@
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>-1.696776052995119e-12</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30289,7 +30289,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -30435,7 +30435,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>-3.694951207129925e-13</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -30457,7 +30457,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -31045,28 +31045,28 @@
         <v>22.58097600954486</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043123</v>
+        <v>85.00457245043121</v>
       </c>
       <c r="J2" t="n">
         <v>187.1384950655544</v>
       </c>
       <c r="K2" t="n">
-        <v>280.472093452864</v>
+        <v>280.4720934528639</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672894</v>
+        <v>347.9504329672893</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470275</v>
+        <v>387.1618995470274</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470026</v>
+        <v>393.4265838470025</v>
       </c>
       <c r="O2" t="n">
-        <v>371.5015668622681</v>
+        <v>371.501566862268</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244296</v>
+        <v>317.0679923244295</v>
       </c>
       <c r="Q2" t="n">
         <v>238.1048576151093</v>
@@ -31075,13 +31075,13 @@
         <v>138.5038187974684</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619225</v>
+        <v>50.24425639619223</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924584</v>
+        <v>9.651968507924582</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1763923428061602</v>
+        <v>0.1763923428061601</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,13 +31118,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.179727797435305</v>
+        <v>1.179727797435304</v>
       </c>
       <c r="H3" t="n">
         <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
-        <v>40.61782109590852</v>
+        <v>40.61782109590851</v>
       </c>
       <c r="J3" t="n">
         <v>111.4584056340083</v>
@@ -31136,7 +31136,7 @@
         <v>256.1509851405033</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975331</v>
+        <v>298.916117797533</v>
       </c>
       <c r="N3" t="n">
         <v>306.8275379829655</v>
@@ -31145,22 +31145,22 @@
         <v>280.6872536292674</v>
       </c>
       <c r="P3" t="n">
-        <v>225.2762668628873</v>
+        <v>225.2762668628872</v>
       </c>
       <c r="Q3" t="n">
         <v>150.5912184936715</v>
       </c>
       <c r="R3" t="n">
-        <v>73.2466083355008</v>
+        <v>73.24660833550077</v>
       </c>
       <c r="S3" t="n">
         <v>21.91292641288821</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820371</v>
+        <v>4.75513090282037</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390166</v>
+        <v>0.07761367088390164</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445823</v>
+        <v>0.9890441557445822</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620019</v>
+        <v>8.793501675620018</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639163</v>
+        <v>29.74325515639162</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114197</v>
+        <v>69.92542181114196</v>
       </c>
       <c r="K4" t="n">
         <v>114.9089482765069</v>
@@ -31221,25 +31221,25 @@
         <v>151.3507297604415</v>
       </c>
       <c r="O4" t="n">
-        <v>139.7968957592434</v>
+        <v>139.7968957592433</v>
       </c>
       <c r="P4" t="n">
         <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784863</v>
+        <v>82.81896107784861</v>
       </c>
       <c r="R4" t="n">
-        <v>44.47102176647912</v>
+        <v>44.47102176647911</v>
       </c>
       <c r="S4" t="n">
         <v>17.23634224147603</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181396</v>
+        <v>4.225915938181395</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061364</v>
+        <v>0.05394786304061363</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.050852781085666</v>
+        <v>3.050852781085672</v>
       </c>
       <c r="H5" t="n">
-        <v>31.24454604429359</v>
+        <v>31.24454604429365</v>
       </c>
       <c r="I5" t="n">
-        <v>117.6180018428053</v>
+        <v>117.6180018428055</v>
       </c>
       <c r="J5" t="n">
-        <v>258.9373162286698</v>
+        <v>258.9373162286703</v>
       </c>
       <c r="K5" t="n">
-        <v>388.0799144520261</v>
+        <v>388.0799144520269</v>
       </c>
       <c r="L5" t="n">
-        <v>481.4474502511766</v>
+        <v>481.4474502511776</v>
       </c>
       <c r="M5" t="n">
-        <v>535.7030533968089</v>
+        <v>535.7030533968099</v>
       </c>
       <c r="N5" t="n">
-        <v>544.3712888610685</v>
+        <v>544.3712888610696</v>
       </c>
       <c r="O5" t="n">
-        <v>514.034371519148</v>
+        <v>514.0343715191489</v>
       </c>
       <c r="P5" t="n">
-        <v>438.7164434860954</v>
+        <v>438.7164434860963</v>
       </c>
       <c r="Q5" t="n">
-        <v>329.4577782634649</v>
+        <v>329.4577782634656</v>
       </c>
       <c r="R5" t="n">
-        <v>191.6431310098726</v>
+        <v>191.643131009873</v>
       </c>
       <c r="S5" t="n">
-        <v>69.52130774898968</v>
+        <v>69.52130774898981</v>
       </c>
       <c r="T5" t="n">
-        <v>13.35510804920251</v>
+        <v>13.35510804920253</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2440682224868532</v>
+        <v>0.2440682224868537</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.632350146030884</v>
+        <v>1.632350146030887</v>
       </c>
       <c r="H6" t="n">
-        <v>15.76506588403512</v>
+        <v>15.76506588403515</v>
       </c>
       <c r="I6" t="n">
-        <v>56.20152915062474</v>
+        <v>56.20152915062484</v>
       </c>
       <c r="J6" t="n">
-        <v>154.2212916475933</v>
+        <v>154.2212916475936</v>
       </c>
       <c r="K6" t="n">
-        <v>263.5887514316625</v>
+        <v>263.588751431663</v>
       </c>
       <c r="L6" t="n">
-        <v>354.4276051721882</v>
+        <v>354.4276051721889</v>
       </c>
       <c r="M6" t="n">
-        <v>413.6002979658076</v>
+        <v>413.6002979658085</v>
       </c>
       <c r="N6" t="n">
-        <v>424.5470671468657</v>
+        <v>424.5470671468665</v>
       </c>
       <c r="O6" t="n">
-        <v>388.3776244374445</v>
+        <v>388.3776244374453</v>
       </c>
       <c r="P6" t="n">
-        <v>311.7072835872484</v>
+        <v>311.707283587249</v>
       </c>
       <c r="Q6" t="n">
-        <v>208.3680642547493</v>
+        <v>208.3680642547497</v>
       </c>
       <c r="R6" t="n">
-        <v>101.3488976632158</v>
+        <v>101.348897663216</v>
       </c>
       <c r="S6" t="n">
-        <v>30.32018801947714</v>
+        <v>30.3201880194772</v>
       </c>
       <c r="T6" t="n">
-        <v>6.579516597378867</v>
+        <v>6.57951659737888</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1073914569757161</v>
+        <v>0.1073914569757163</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.368507528236993</v>
+        <v>1.368507528236996</v>
       </c>
       <c r="H7" t="n">
-        <v>12.16727602377982</v>
+        <v>12.16727602377984</v>
       </c>
       <c r="I7" t="n">
-        <v>41.15475366734523</v>
+        <v>41.15475366734531</v>
       </c>
       <c r="J7" t="n">
-        <v>96.75348224635542</v>
+        <v>96.7534822463556</v>
       </c>
       <c r="K7" t="n">
-        <v>158.9956928260797</v>
+        <v>158.99569282608</v>
       </c>
       <c r="L7" t="n">
-        <v>203.4597465162527</v>
+        <v>203.459746516253</v>
       </c>
       <c r="M7" t="n">
-        <v>214.5197755399134</v>
+        <v>214.5197755399138</v>
       </c>
       <c r="N7" t="n">
-        <v>209.4189747528484</v>
+        <v>209.4189747528488</v>
       </c>
       <c r="O7" t="n">
-        <v>193.4323186275344</v>
+        <v>193.4323186275347</v>
       </c>
       <c r="P7" t="n">
-        <v>165.5147650514996</v>
+        <v>165.5147650514999</v>
       </c>
       <c r="Q7" t="n">
-        <v>114.5938440235541</v>
+        <v>114.5938440235543</v>
       </c>
       <c r="R7" t="n">
-        <v>61.53307486054698</v>
+        <v>61.5330748605471</v>
       </c>
       <c r="S7" t="n">
-        <v>23.84935392391196</v>
+        <v>23.849353923912</v>
       </c>
       <c r="T7" t="n">
-        <v>5.847259438830788</v>
+        <v>5.847259438830799</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07464586517656335</v>
+        <v>0.07464586517656351</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.432002671508279</v>
+        <v>3.432002671508275</v>
       </c>
       <c r="H8" t="n">
-        <v>35.14799735958417</v>
+        <v>35.14799735958413</v>
       </c>
       <c r="I8" t="n">
-        <v>132.3122829933231</v>
+        <v>132.3122829933229</v>
       </c>
       <c r="J8" t="n">
-        <v>291.2869367409261</v>
+        <v>291.2869367409257</v>
       </c>
       <c r="K8" t="n">
-        <v>436.5636098258717</v>
+        <v>436.5636098258711</v>
       </c>
       <c r="L8" t="n">
-        <v>541.5957615840433</v>
+        <v>541.5957615840425</v>
       </c>
       <c r="M8" t="n">
-        <v>602.6296390934787</v>
+        <v>602.6296390934777</v>
       </c>
       <c r="N8" t="n">
-        <v>612.3808166839016</v>
+        <v>612.3808166839008</v>
       </c>
       <c r="O8" t="n">
-        <v>578.253840119091</v>
+        <v>578.2538401190903</v>
       </c>
       <c r="P8" t="n">
-        <v>493.5262741662303</v>
+        <v>493.5262741662297</v>
       </c>
       <c r="Q8" t="n">
-        <v>370.61767849284</v>
+        <v>370.6176784928394</v>
       </c>
       <c r="R8" t="n">
-        <v>215.5855378141322</v>
+        <v>215.5855378141319</v>
       </c>
       <c r="S8" t="n">
-        <v>78.20676087699499</v>
+        <v>78.20676087699489</v>
       </c>
       <c r="T8" t="n">
-        <v>15.0235916945275</v>
+        <v>15.02359169452748</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2745602137206623</v>
+        <v>0.2745602137206619</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.836283316175398</v>
+        <v>1.836283316175396</v>
       </c>
       <c r="H9" t="n">
-        <v>17.73463097464135</v>
+        <v>17.73463097464133</v>
       </c>
       <c r="I9" t="n">
-        <v>63.22291242095122</v>
+        <v>63.22291242095114</v>
       </c>
       <c r="J9" t="n">
-        <v>173.4885040076064</v>
+        <v>173.4885040076062</v>
       </c>
       <c r="K9" t="n">
-        <v>296.5194861913581</v>
+        <v>296.5194861913577</v>
       </c>
       <c r="L9" t="n">
-        <v>398.7070419616803</v>
+        <v>398.7070419616797</v>
       </c>
       <c r="M9" t="n">
-        <v>465.2723121730384</v>
+        <v>465.2723121730377</v>
       </c>
       <c r="N9" t="n">
-        <v>477.5866858152849</v>
+        <v>477.5866858152842</v>
       </c>
       <c r="O9" t="n">
-        <v>436.898513388451</v>
+        <v>436.8985133884504</v>
       </c>
       <c r="P9" t="n">
-        <v>350.6495746475636</v>
+        <v>350.6495746475631</v>
       </c>
       <c r="Q9" t="n">
-        <v>234.3999545349509</v>
+        <v>234.3999545349506</v>
       </c>
       <c r="R9" t="n">
-        <v>114.0106430867498</v>
+        <v>114.0106430867496</v>
       </c>
       <c r="S9" t="n">
-        <v>34.10815721053863</v>
+        <v>34.10815721053858</v>
       </c>
       <c r="T9" t="n">
-        <v>7.401510384057852</v>
+        <v>7.401510384057842</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1208081129062763</v>
+        <v>0.1208081129062761</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.539478247526973</v>
+        <v>1.539478247526971</v>
       </c>
       <c r="H10" t="n">
-        <v>13.68736114619437</v>
+        <v>13.68736114619435</v>
       </c>
       <c r="I10" t="n">
-        <v>46.29630948017481</v>
+        <v>46.29630948017474</v>
       </c>
       <c r="J10" t="n">
-        <v>108.841112100157</v>
+        <v>108.8411121001568</v>
       </c>
       <c r="K10" t="n">
-        <v>178.8593818490428</v>
+        <v>178.8593818490426</v>
       </c>
       <c r="L10" t="n">
-        <v>228.8784296368738</v>
+        <v>228.8784296368735</v>
       </c>
       <c r="M10" t="n">
-        <v>241.3202129282508</v>
+        <v>241.3202129282505</v>
       </c>
       <c r="N10" t="n">
-        <v>235.5821576420142</v>
+        <v>235.5821576420138</v>
       </c>
       <c r="O10" t="n">
-        <v>217.5982526595399</v>
+        <v>217.5982526595396</v>
       </c>
       <c r="P10" t="n">
-        <v>186.1928964099895</v>
+        <v>186.1928964099892</v>
       </c>
       <c r="Q10" t="n">
-        <v>128.9103103451905</v>
+        <v>128.9103103451903</v>
       </c>
       <c r="R10" t="n">
-        <v>69.22054011153097</v>
+        <v>69.22054011153088</v>
       </c>
       <c r="S10" t="n">
-        <v>26.82890727735642</v>
+        <v>26.82890727735639</v>
       </c>
       <c r="T10" t="n">
-        <v>6.577770693978883</v>
+        <v>6.577770693978874</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08397154077419863</v>
+        <v>0.08397154077419852</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31844,7 +31844,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>555.1777416630679</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862121</v>
@@ -31853,16 +31853,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>461.1007071927452</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32072,13 +32072,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
@@ -32090,16 +32090,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>461.1007071927452</v>
+        <v>512.9101366533182</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32315,7 +32315,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>303.4024373464761</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
@@ -32327,10 +32327,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,10 +32540,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32552,37 +32552,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L21" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>560.1612034965799</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P22" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32783,13 +32783,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>183.7183104822601</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32801,16 +32801,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33020,19 +33020,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>171.5999003578897</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
@@ -33041,13 +33041,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33257,16 +33257,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>555.1777416630679</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33275,16 +33275,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33494,34 +33494,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>399.9031616963283</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>691.6611968462892</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33655,7 +33655,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K35" t="n">
         <v>699.5441750817575</v>
@@ -33731,10 +33731,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
@@ -33743,22 +33743,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>414.6448185524877</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>344.2757660550399</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33971,13 +33971,13 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>162.5000833330458</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33986,16 +33986,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>361.7519118779092</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34129,7 +34129,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K41" t="n">
         <v>699.5441750817575</v>
@@ -34205,16 +34205,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>217.8799919951683</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34223,16 +34223,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34442,19 +34442,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>399.9031616963283</v>
+        <v>240.4469701760392</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
@@ -34466,10 +34466,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538868137</v>
+        <v>6.09259053886808</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788344</v>
+        <v>60.38224240788338</v>
       </c>
       <c r="L2" t="n">
         <v>112.1840179973021</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197548</v>
+        <v>156.8156663197547</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504117</v>
+        <v>164.0135202504116</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405814</v>
+        <v>141.4033554405813</v>
       </c>
       <c r="P2" t="n">
-        <v>85.83499656916001</v>
+        <v>85.83499656915996</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065984</v>
+        <v>15.79916774065978</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781475</v>
+        <v>52.65872908781472</v>
       </c>
       <c r="L3" t="n">
-        <v>117.5966053606292</v>
+        <v>117.5966053606291</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755148</v>
+        <v>156.7820838755147</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996322</v>
+        <v>175.4858258996321</v>
       </c>
       <c r="O3" t="n">
         <v>138.091009184823</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855702</v>
+        <v>91.301859448557</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440765002</v>
+        <v>10.60944440764999</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34860,16 +34860,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>12.15921574646083</v>
+        <v>12.1592157464608</v>
       </c>
       <c r="M4" t="n">
-        <v>16.11138312061158</v>
+        <v>16.11138312061155</v>
       </c>
       <c r="N4" t="n">
-        <v>23.66518529520832</v>
+        <v>23.66518529520829</v>
       </c>
       <c r="O4" t="n">
-        <v>1.340357307400581</v>
+        <v>1.340357307400552</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>77.89141170198349</v>
+        <v>77.891411701984</v>
       </c>
       <c r="K5" t="n">
-        <v>167.9900634070456</v>
+        <v>167.9900634070463</v>
       </c>
       <c r="L5" t="n">
-        <v>245.6810352811894</v>
+        <v>245.6810352811904</v>
       </c>
       <c r="M5" t="n">
-        <v>305.3568201695361</v>
+        <v>305.3568201695372</v>
       </c>
       <c r="N5" t="n">
-        <v>314.9582252644776</v>
+        <v>314.9582252644787</v>
       </c>
       <c r="O5" t="n">
-        <v>283.9361600974612</v>
+        <v>283.9361600974621</v>
       </c>
       <c r="P5" t="n">
-        <v>207.4834477308259</v>
+        <v>207.4834477308268</v>
       </c>
       <c r="Q5" t="n">
-        <v>107.1520883890155</v>
+        <v>107.1520883890161</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>27.3836649809266</v>
+        <v>27.38366498092691</v>
       </c>
       <c r="K6" t="n">
-        <v>125.7473124573035</v>
+        <v>125.747312457304</v>
       </c>
       <c r="L6" t="n">
-        <v>215.873225392314</v>
+        <v>215.8732253923147</v>
       </c>
       <c r="M6" t="n">
-        <v>271.4662640437893</v>
+        <v>271.4662640437901</v>
       </c>
       <c r="N6" t="n">
-        <v>293.2053550635324</v>
+        <v>293.2053550635333</v>
       </c>
       <c r="O6" t="n">
-        <v>245.7813799930001</v>
+        <v>245.7813799930008</v>
       </c>
       <c r="P6" t="n">
-        <v>177.7328761729181</v>
+        <v>177.7328761729187</v>
       </c>
       <c r="Q6" t="n">
-        <v>68.38629016872781</v>
+        <v>68.38629016872821</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,22 +35094,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>29.98243465554435</v>
+        <v>29.98243465554467</v>
       </c>
       <c r="L7" t="n">
-        <v>68.57507023501438</v>
+        <v>68.57507023501475</v>
       </c>
       <c r="M7" t="n">
-        <v>75.59399159230833</v>
+        <v>75.59399159230875</v>
       </c>
       <c r="N7" t="n">
-        <v>81.73343028761519</v>
+        <v>81.73343028761562</v>
       </c>
       <c r="O7" t="n">
-        <v>54.97578017569157</v>
+        <v>54.97578017569194</v>
       </c>
       <c r="P7" t="n">
-        <v>27.78676100235194</v>
+        <v>27.78676100235225</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>110.2410322142398</v>
+        <v>110.2410322142394</v>
       </c>
       <c r="K8" t="n">
-        <v>216.4737587808911</v>
+        <v>216.4737587808905</v>
       </c>
       <c r="L8" t="n">
-        <v>305.8293466140561</v>
+        <v>305.8293466140553</v>
       </c>
       <c r="M8" t="n">
-        <v>372.283405866206</v>
+        <v>372.283405866205</v>
       </c>
       <c r="N8" t="n">
-        <v>382.9677530873107</v>
+        <v>382.9677530873099</v>
       </c>
       <c r="O8" t="n">
-        <v>348.1556286974043</v>
+        <v>348.1556286974036</v>
       </c>
       <c r="P8" t="n">
-        <v>262.2932784109608</v>
+        <v>262.2932784109601</v>
       </c>
       <c r="Q8" t="n">
-        <v>148.3119886183905</v>
+        <v>148.31198861839</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>46.6508773409397</v>
+        <v>46.65087734093947</v>
       </c>
       <c r="K9" t="n">
-        <v>158.6780472169991</v>
+        <v>158.6780472169987</v>
       </c>
       <c r="L9" t="n">
-        <v>260.1526621818061</v>
+        <v>260.1526621818056</v>
       </c>
       <c r="M9" t="n">
-        <v>323.13827825102</v>
+        <v>323.1382782510194</v>
       </c>
       <c r="N9" t="n">
-        <v>346.2449737319515</v>
+        <v>346.2449737319509</v>
       </c>
       <c r="O9" t="n">
-        <v>294.3022689440066</v>
+        <v>294.302268944006</v>
       </c>
       <c r="P9" t="n">
-        <v>216.6751672332334</v>
+        <v>216.6751672332329</v>
       </c>
       <c r="Q9" t="n">
-        <v>94.41818044892935</v>
+        <v>94.41818044892904</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>49.84612367850744</v>
+        <v>49.84612367850721</v>
       </c>
       <c r="L10" t="n">
-        <v>93.99375335563556</v>
+        <v>93.99375335563525</v>
       </c>
       <c r="M10" t="n">
-        <v>102.3944289806458</v>
+        <v>102.3944289806455</v>
       </c>
       <c r="N10" t="n">
-        <v>107.896613176781</v>
+        <v>107.8966131767806</v>
       </c>
       <c r="O10" t="n">
-        <v>79.14171420769708</v>
+        <v>79.14171420769679</v>
       </c>
       <c r="P10" t="n">
-        <v>48.46489236084184</v>
+        <v>48.46489236084162</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35492,7 +35492,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>416.6233618831937</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
@@ -35501,16 +35501,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>318.5044627483008</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35586,7 +35586,7 @@
         <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998967</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35720,13 +35720,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
@@ -35738,16 +35738,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>318.5044627483008</v>
+        <v>370.3138922088737</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35963,7 +35963,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>165.5609983721171</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
@@ -35975,10 +35975,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36045,13 +36045,13 @@
         <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191263</v>
       </c>
       <c r="M19" t="n">
         <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899065</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
         <v>373.2618997060454</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,28 +36200,28 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L21" t="n">
-        <v>25.73094315394657</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>418.0271695745616</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36431,13 +36431,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>45.87687150790109</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36449,16 +36449,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36668,19 +36668,19 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>29.46586643587134</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
@@ -36689,13 +36689,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36905,16 +36905,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>416.6233618831937</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36923,16 +36923,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36996,7 +36996,7 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010398</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>261.3487819164541</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>560.3194847629559</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37303,7 +37303,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K35" t="n">
         <v>479.454324036777</v>
@@ -37379,10 +37379,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
@@ -37391,22 +37391,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>272.5107846304694</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>212.9340539717066</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37473,7 +37473,7 @@
         <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899057</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
         <v>373.2618997060454</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37619,13 +37619,13 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>23.94570355317166</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37634,16 +37634,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>219.1556674334648</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37777,7 +37777,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K41" t="n">
         <v>479.454324036777</v>
@@ -37853,16 +37853,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>79.32561221529411</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37871,16 +37871,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38090,19 +38090,19 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>261.3487819164541</v>
+        <v>101.892590396165</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
@@ -38114,10 +38114,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
